--- a/models/DECIDUOUS.xlsx
+++ b/models/DECIDUOUS.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes_documents\a_ABSys\DIGITAF\WP2farmers\task2.2_treecropperformance\DigitAFtreeAdvice\agroforestreeadvice\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="data"/>
-    <sheet r:id="rId2" sheetId="2" name="interface"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="interface" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="dataDECIDUOUS" localSheetId="0">data!$A$1:$U$34</definedName>
     <definedName name="interfaceDECIDUOUS" localSheetId="1">interface!$A$1:$T$32</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="335">
   <si>
     <t>initialorder</t>
   </si>
@@ -108,9 +113,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>ask dutch translation</t>
-  </si>
-  <si>
     <t>Climat</t>
   </si>
   <si>
@@ -120,9 +122,6 @@
     <t>Faible</t>
   </si>
   <si>
-    <t>ask German translation</t>
-  </si>
-  <si>
     <t>usergeltardif_medium</t>
   </si>
   <si>
@@ -718,13 +717,324 @@
   </si>
   <si>
     <t>Cerisiers  -  SL64</t>
+  </si>
+  <si>
+    <t>Klima</t>
+  </si>
+  <si>
+    <t>Ausstattung</t>
+  </si>
+  <si>
+    <t>Boden</t>
+  </si>
+  <si>
+    <t>Obstarten</t>
+  </si>
+  <si>
+    <t>Ressourcen</t>
+  </si>
+  <si>
+    <t>Höhe</t>
+  </si>
+  <si>
+    <t>Gefahr von Spätfrost</t>
+  </si>
+  <si>
+    <t>Gefahr von Dürre</t>
+  </si>
+  <si>
+    <t>Dürrerisiko</t>
+  </si>
+  <si>
+    <t>Ist eine Bewässerung möglich?</t>
+  </si>
+  <si>
+    <t>Ist Bewässerung möglich?</t>
+  </si>
+  <si>
+    <t>Bodentiefe</t>
+  </si>
+  <si>
+    <t>Tiefe des Bodens</t>
+  </si>
+  <si>
+    <t>Hydromorphie</t>
+  </si>
+  <si>
+    <t>Aktivkalk</t>
+  </si>
+  <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>Birne</t>
+  </si>
+  <si>
+    <t>Aprikose</t>
+  </si>
+  <si>
+    <t>Pfirsich</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>Kirsche</t>
+  </si>
+  <si>
+    <t>Verfügbare Arbeitskräfte</t>
+  </si>
+  <si>
+    <t>Gewünschte Baumhöhe</t>
+  </si>
+  <si>
+    <t>Niedrig</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Nur pünktlich</t>
+  </si>
+  <si>
+    <t>ja regelmäßig</t>
+  </si>
+  <si>
+    <t>Untief (&lt;30 cm)</t>
+  </si>
+  <si>
+    <t>Tief (&gt;1m)</t>
+  </si>
+  <si>
+    <t>Entwässernd</t>
+  </si>
+  <si>
+    <t>Ausgeglichen</t>
+  </si>
+  <si>
+    <t>Geringfügig hydromorph</t>
+  </si>
+  <si>
+    <t>Sehr hydromorph</t>
+  </si>
+  <si>
+    <t>Geringe Verfügbarkeit</t>
+  </si>
+  <si>
+    <t>Mittlere Verfügbarkeit</t>
+  </si>
+  <si>
+    <t>Hohe Verfügbarkeit</t>
+  </si>
+  <si>
+    <t>3 bis 5 m</t>
+  </si>
+  <si>
+    <t>5 bis 8 m</t>
+  </si>
+  <si>
+    <t>risico op late vorst</t>
+  </si>
+  <si>
+    <t>risico op droogte</t>
+  </si>
+  <si>
+    <t>Is irrigatie mogelijk?</t>
+  </si>
+  <si>
+    <t>Bodemdiepte</t>
+  </si>
+  <si>
+    <t>Hydromorfie</t>
+  </si>
+  <si>
+    <t>actieve kalk</t>
+  </si>
+  <si>
+    <t>Appel</t>
+  </si>
+  <si>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>Abrikoos</t>
+  </si>
+  <si>
+    <t>Perzik</t>
+  </si>
+  <si>
+    <t>Pruim</t>
+  </si>
+  <si>
+    <t>Kers</t>
+  </si>
+  <si>
+    <t>Beschikbaar personeelsbestand</t>
+  </si>
+  <si>
+    <t>Gewenste boomhoogte</t>
+  </si>
+  <si>
+    <t>Klimaat</t>
+  </si>
+  <si>
+    <t>Apparatuur</t>
+  </si>
+  <si>
+    <t>Uitrusting</t>
+  </si>
+  <si>
+    <t>Bodem</t>
+  </si>
+  <si>
+    <t>Grond</t>
+  </si>
+  <si>
+    <t>Fruitsoorten</t>
+  </si>
+  <si>
+    <t>Hulpbronnen</t>
+  </si>
+  <si>
+    <t>Middelen</t>
+  </si>
+  <si>
+    <t>Hoogte</t>
+  </si>
+  <si>
+    <t>BigCriteria_cz</t>
+  </si>
+  <si>
+    <t>criteria_cz</t>
+  </si>
+  <si>
+    <t>choice_cz</t>
+  </si>
+  <si>
+    <t>Podnebí</t>
+  </si>
+  <si>
+    <t>Zařízení</t>
+  </si>
+  <si>
+    <t>Vybavení</t>
+  </si>
+  <si>
+    <t>Půda</t>
+  </si>
+  <si>
+    <t>Ovocné druhy</t>
+  </si>
+  <si>
+    <t>Zdroje</t>
+  </si>
+  <si>
+    <t>Výška</t>
+  </si>
+  <si>
+    <t>riziko pozdních mrazů</t>
+  </si>
+  <si>
+    <t>riziko sucha</t>
+  </si>
+  <si>
+    <t>Je možné zavlažování?</t>
+  </si>
+  <si>
+    <t>Je zavlažování možné?</t>
+  </si>
+  <si>
+    <t>Hloubka půdy</t>
+  </si>
+  <si>
+    <t>aktivní vápno</t>
+  </si>
+  <si>
+    <t>Jablko</t>
+  </si>
+  <si>
+    <t>Hruška</t>
+  </si>
+  <si>
+    <t>Meruňka</t>
+  </si>
+  <si>
+    <t>Broskev</t>
+  </si>
+  <si>
+    <t>Švestka</t>
+  </si>
+  <si>
+    <t>Třešeň</t>
+  </si>
+  <si>
+    <t>Dostupná pracovní síla</t>
+  </si>
+  <si>
+    <t>Požadovaná výška stromu</t>
+  </si>
+  <si>
+    <t>Nízká</t>
+  </si>
+  <si>
+    <t>Střední</t>
+  </si>
+  <si>
+    <t>Vysoká</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Pouze přesné</t>
+  </si>
+  <si>
+    <t>ano pravidelně</t>
+  </si>
+  <si>
+    <t>Mělké (&lt;30 cm)</t>
+  </si>
+  <si>
+    <t>Hluboké (&gt;1m)</t>
+  </si>
+  <si>
+    <t>Odvodnění</t>
+  </si>
+  <si>
+    <t>Vyvážený</t>
+  </si>
+  <si>
+    <t>Mírně hydromorfní</t>
+  </si>
+  <si>
+    <t>Velmi hydromorfní</t>
+  </si>
+  <si>
+    <t>Nízká dostupnost</t>
+  </si>
+  <si>
+    <t>Střední dostupnost</t>
+  </si>
+  <si>
+    <t>Vysoká dostupnost</t>
+  </si>
+  <si>
+    <t>3 až 5 m</t>
+  </si>
+  <si>
+    <t>5 až 8 m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,31 +1078,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -803,10 +1112,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -844,71 +1153,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,7 +1245,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -959,11 +1268,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -972,13 +1281,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -988,7 +1297,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -997,7 +1306,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1006,7 +1315,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1014,10 +1323,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1090,102 +1399,101 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="4" width="54.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="54.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1194,63 +1502,63 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1259,63 +1567,63 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1324,63 +1632,63 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1389,63 +1697,63 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1454,63 +1762,63 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1519,63 +1827,63 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1584,63 +1892,63 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1649,63 +1957,63 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1714,63 +2022,63 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1779,63 +2087,63 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -1844,63 +2152,63 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -1909,63 +2217,63 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1974,63 +2282,63 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -2039,63 +2347,63 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -2104,63 +2412,63 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -2169,63 +2477,63 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -2234,63 +2542,63 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T18" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -2299,63 +2607,63 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T19" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -2364,63 +2672,63 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -2429,63 +2737,63 @@
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -2494,63 +2802,63 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -2559,63 +2867,63 @@
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -2624,63 +2932,63 @@
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -2689,63 +2997,63 @@
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -2754,63 +3062,63 @@
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -2819,63 +3127,63 @@
         <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
@@ -2884,63 +3192,63 @@
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
@@ -2949,63 +3257,63 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -3014,63 +3322,63 @@
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
@@ -3079,63 +3387,63 @@
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C32" s="3">
         <v>6</v>
@@ -3144,63 +3452,63 @@
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C33" s="3">
         <v>6</v>
@@ -3209,63 +3517,63 @@
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
@@ -3274,55 +3582,55 @@
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3335,35 +3643,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="10" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3424,8 +3723,17 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="U1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3460,34 +3768,43 @@
         <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>254</v>
+      </c>
+      <c r="U2" t="s">
+        <v>231</v>
+      </c>
+      <c r="V2" t="s">
+        <v>304</v>
+      </c>
+      <c r="W2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -3504,7 +3821,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -3519,37 +3836,46 @@
         <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+        <v>255</v>
+      </c>
+      <c r="U3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V3" t="s">
+        <v>304</v>
+      </c>
+      <c r="W3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3566,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -3581,37 +3907,46 @@
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>256</v>
+      </c>
+      <c r="U4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V4" t="s">
+        <v>304</v>
+      </c>
+      <c r="W4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3625,10 +3960,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
@@ -3640,40 +3975,49 @@
         <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+        <v>254</v>
+      </c>
+      <c r="U5" t="s">
+        <v>231</v>
+      </c>
+      <c r="V5" t="s">
+        <v>305</v>
+      </c>
+      <c r="W5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3687,10 +4031,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -3702,40 +4046,49 @@
         <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>255</v>
+      </c>
+      <c r="U6" t="s">
+        <v>231</v>
+      </c>
+      <c r="V6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,10 +4102,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -3764,40 +4117,49 @@
         <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+        <v>256</v>
+      </c>
+      <c r="U7" t="s">
+        <v>231</v>
+      </c>
+      <c r="V7" t="s">
+        <v>305</v>
+      </c>
+      <c r="W7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -3808,13 +4170,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
@@ -3823,43 +4185,52 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>257</v>
+      </c>
+      <c r="U8" t="s">
+        <v>298</v>
+      </c>
+      <c r="V8" t="s">
+        <v>306</v>
+      </c>
+      <c r="W8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3870,13 +4241,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -3885,43 +4256,52 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>258</v>
+      </c>
+      <c r="U9" t="s">
+        <v>299</v>
+      </c>
+      <c r="V9" t="s">
+        <v>307</v>
+      </c>
+      <c r="W9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3932,13 +4312,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
@@ -3947,43 +4327,52 @@
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>259</v>
+      </c>
+      <c r="U10" t="s">
+        <v>299</v>
+      </c>
+      <c r="V10" t="s">
+        <v>307</v>
+      </c>
+      <c r="W10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3994,13 +4383,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>25</v>
@@ -4009,43 +4398,52 @@
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="R11" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+        <v>260</v>
+      </c>
+      <c r="U11" t="s">
+        <v>300</v>
+      </c>
+      <c r="V11" t="s">
+        <v>308</v>
+      </c>
+      <c r="W11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,13 +4454,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>25</v>
@@ -4071,43 +4469,52 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+        <v>255</v>
+      </c>
+      <c r="U12" t="s">
+        <v>300</v>
+      </c>
+      <c r="V12" t="s">
+        <v>308</v>
+      </c>
+      <c r="W12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4118,13 +4525,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>25</v>
@@ -4133,43 +4540,52 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>261</v>
+      </c>
+      <c r="U13" t="s">
+        <v>300</v>
+      </c>
+      <c r="V13" t="s">
+        <v>308</v>
+      </c>
+      <c r="W13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -4180,13 +4596,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>25</v>
@@ -4195,43 +4611,52 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="R14" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>262</v>
+      </c>
+      <c r="U14" t="s">
+        <v>300</v>
+      </c>
+      <c r="V14" t="s">
+        <v>275</v>
+      </c>
+      <c r="W14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -4242,13 +4667,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>25</v>
@@ -4257,43 +4682,52 @@
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="Q15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>263</v>
+      </c>
+      <c r="U15" t="s">
+        <v>300</v>
+      </c>
+      <c r="V15" t="s">
+        <v>275</v>
+      </c>
+      <c r="W15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -4304,13 +4738,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
@@ -4319,43 +4753,52 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+        <v>264</v>
+      </c>
+      <c r="U16" t="s">
+        <v>300</v>
+      </c>
+      <c r="V16" t="s">
+        <v>275</v>
+      </c>
+      <c r="W16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,13 +4809,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>25</v>
@@ -4381,43 +4824,52 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="Q17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+        <v>265</v>
+      </c>
+      <c r="U17" t="s">
+        <v>300</v>
+      </c>
+      <c r="V17" t="s">
+        <v>275</v>
+      </c>
+      <c r="W17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4428,13 +4880,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -4443,43 +4895,52 @@
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+        <v>90</v>
+      </c>
+      <c r="U18" t="s">
+        <v>300</v>
+      </c>
+      <c r="V18" t="s">
+        <v>309</v>
+      </c>
+      <c r="W18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -4490,13 +4951,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>25</v>
@@ -4505,415 +4966,478 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U19" t="s">
+        <v>300</v>
+      </c>
+      <c r="V19" t="s">
+        <v>309</v>
+      </c>
+      <c r="W19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C20" s="3">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="P20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+        <v>246</v>
+      </c>
+      <c r="U20" t="s">
+        <v>301</v>
+      </c>
+      <c r="V20" t="s">
+        <v>310</v>
+      </c>
+      <c r="W20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="Q21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+        <v>247</v>
+      </c>
+      <c r="U21" t="s">
+        <v>301</v>
+      </c>
+      <c r="V21" t="s">
+        <v>311</v>
+      </c>
+      <c r="W21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+        <v>248</v>
+      </c>
+      <c r="U22" t="s">
+        <v>301</v>
+      </c>
+      <c r="V22" t="s">
+        <v>312</v>
+      </c>
+      <c r="W22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+        <v>249</v>
+      </c>
+      <c r="U23" t="s">
+        <v>301</v>
+      </c>
+      <c r="V23" t="s">
+        <v>313</v>
+      </c>
+      <c r="W23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="P24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+        <v>250</v>
+      </c>
+      <c r="U24" t="s">
+        <v>301</v>
+      </c>
+      <c r="V24" t="s">
+        <v>314</v>
+      </c>
+      <c r="W24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="P25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+        <v>251</v>
+      </c>
+      <c r="U25" t="s">
+        <v>301</v>
+      </c>
+      <c r="V25" t="s">
+        <v>315</v>
+      </c>
+      <c r="W25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4924,13 +5448,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>25</v>
@@ -4939,43 +5463,52 @@
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Q26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+        <v>266</v>
+      </c>
+      <c r="U26" t="s">
+        <v>302</v>
+      </c>
+      <c r="V26" t="s">
+        <v>316</v>
+      </c>
+      <c r="W26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -4986,13 +5519,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>25</v>
@@ -5001,43 +5534,52 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+        <v>267</v>
+      </c>
+      <c r="U27" t="s">
+        <v>302</v>
+      </c>
+      <c r="V27" t="s">
+        <v>316</v>
+      </c>
+      <c r="W27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -5048,13 +5590,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>25</v>
@@ -5063,60 +5605,69 @@
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="P28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+        <v>268</v>
+      </c>
+      <c r="U28" t="s">
+        <v>302</v>
+      </c>
+      <c r="V28" t="s">
+        <v>316</v>
+      </c>
+      <c r="W28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>25</v>
@@ -5125,60 +5676,69 @@
         <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="Q29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+        <v>138</v>
+      </c>
+      <c r="U29" t="s">
+        <v>303</v>
+      </c>
+      <c r="V29" t="s">
+        <v>317</v>
+      </c>
+      <c r="W29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>25</v>
@@ -5187,60 +5747,69 @@
         <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="P30" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+        <v>269</v>
+      </c>
+      <c r="U30" t="s">
+        <v>303</v>
+      </c>
+      <c r="V30" t="s">
+        <v>317</v>
+      </c>
+      <c r="W30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>25</v>
@@ -5249,60 +5818,69 @@
         <v>20</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="P31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+        <v>270</v>
+      </c>
+      <c r="U31" t="s">
+        <v>303</v>
+      </c>
+      <c r="V31" t="s">
+        <v>317</v>
+      </c>
+      <c r="W31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>25</v>
@@ -5311,40 +5889,49 @@
         <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>33</v>
+        <v>148</v>
+      </c>
+      <c r="U32" t="s">
+        <v>303</v>
+      </c>
+      <c r="V32" t="s">
+        <v>317</v>
+      </c>
+      <c r="W32" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
